--- a/Configs/GameConfig/Datas/i18n.xlsx
+++ b/Configs/GameConfig/Datas/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Am I, a dignified emperor, supposed to use my hands to dig for pickles?!</t>
+  </si>
+  <si>
+    <t>level1_tips</t>
+  </si>
+  <si>
+    <t>传说有个少年打破了第四面墙。</t>
+  </si>
+  <si>
+    <t>傳說有個少年打破了第四面牆。</t>
+  </si>
+  <si>
+    <t>It is said that a young man broke the fourth wall.</t>
   </si>
 </sst>
 </file>
@@ -1041,19 +1053,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9.225" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="40.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="35.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="34.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="53.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:27">
@@ -1218,6 +1230,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/GameConfig/Datas/i18n.xlsx
+++ b/Configs/GameConfig/Datas/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -87,6 +87,95 @@
   </si>
   <si>
     <t>It is said that a young man broke the fourth wall.</t>
+  </si>
+  <si>
+    <t>level2_tips_liekai</t>
+  </si>
+  <si>
+    <t>它… …裂开了?!</t>
+  </si>
+  <si>
+    <t>它… …裂開了?!</t>
+  </si>
+  <si>
+    <t>It... cracked?!</t>
+  </si>
+  <si>
+    <t>level2_tips_wrong</t>
+  </si>
+  <si>
+    <t>好像不太对!</t>
+  </si>
+  <si>
+    <t>好像不太對！</t>
+  </si>
+  <si>
+    <t>level4_tip1</t>
+  </si>
+  <si>
+    <t>你出了门</t>
+  </si>
+  <si>
+    <t>你出了門</t>
+  </si>
+  <si>
+    <t>You walked out the door</t>
+  </si>
+  <si>
+    <t>level4_tip2</t>
+  </si>
+  <si>
+    <t>发现手里还握着那砖头</t>
+  </si>
+  <si>
+    <t>發現手裡還握著那磚頭</t>
+  </si>
+  <si>
+    <t>only to realize you were still holding that brick</t>
+  </si>
+  <si>
+    <t>level4_tip3</t>
+  </si>
+  <si>
+    <t>这时候你才发现</t>
+  </si>
+  <si>
+    <t>這時候你才發現</t>
+  </si>
+  <si>
+    <t>It was then that you noticed</t>
+  </si>
+  <si>
+    <t>level4_tip4</t>
+  </si>
+  <si>
+    <t>原来砖头上刻了一句话</t>
+  </si>
+  <si>
+    <t>原來磚頭上刻了一句話</t>
+  </si>
+  <si>
+    <t>there was a message engraved on the brick</t>
+  </si>
+  <si>
+    <t>level4_tip5</t>
+  </si>
+  <si>
+    <t>好久不见</t>
+  </si>
+  <si>
+    <t>好久不見</t>
+  </si>
+  <si>
+    <t>Long time no see</t>
+  </si>
+  <si>
+    <t>level4_tip6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC
+x_x
+</t>
   </si>
 </sst>
 </file>
@@ -99,7 +188,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +209,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF060607"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -594,52 +689,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,89 +743,93 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1053,13 +1152,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.225" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
@@ -1244,6 +1343,118 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" ht="56" spans="2:5">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/GameConfig/Datas/i18n.xlsx
+++ b/Configs/GameConfig/Datas/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -176,6 +176,18 @@
     <t xml:space="preserve">TBC
 x_x
 </t>
+  </si>
+  <si>
+    <t>contact_us</t>
+  </si>
+  <si>
+    <t>联系我们</t>
+  </si>
+  <si>
+    <t>聯繫我們</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
   </si>
 </sst>
 </file>
@@ -819,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -830,9 +842,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1152,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1434,7 +1443,7 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
@@ -1445,14 +1454,28 @@
       <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GameConfig/Datas/i18n.xlsx
+++ b/Configs/GameConfig/Datas/i18n.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17370"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -188,6 +188,75 @@
   </si>
   <si>
     <t>Contact Us</t>
+  </si>
+  <si>
+    <t>abount_us</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>關於我們</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>pingfen</t>
+  </si>
+  <si>
+    <t>评分</t>
+  </si>
+  <si>
+    <t>評分</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>noad</t>
+  </si>
+  <si>
+    <t>免广告</t>
+  </si>
+  <si>
+    <t>免廣告</t>
+  </si>
+  <si>
+    <t>Ad-Free</t>
+  </si>
+  <si>
+    <t>chengjiu</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>Achievements</t>
+  </si>
+  <si>
+    <t>startgame</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>開始遊戲</t>
+  </si>
+  <si>
+    <t>Start Game</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>Settings</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1478,6 +1547,90 @@
         <v>52</v>
       </c>
     </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/GameConfig/Datas/i18n.xlsx
+++ b/Configs/GameConfig/Datas/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>##var</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>好像不太對！</t>
+  </si>
+  <si>
+    <t>Something doesn't seem right!</t>
   </si>
   <si>
     <t>level4_tip1</t>
@@ -178,6 +181,79 @@
 </t>
   </si>
   <si>
+    <t>level3_1</t>
+  </si>
+  <si>
+    <t>一共有5种早餐，每种早餐只有2份，早餐号码如下
+0号：西式早餐
+1号：包子
+2号：油条
+3号：热干面
+4号：玉米
+一共有4个人（A, B, C, D)
+每人有2份早餐，自选一份，再盲抽一份
+自选：A：3 ; B：2 ; C：4 ; D：1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一共有5種早餐，每種早餐只有2份，早餐號碼如下
+0號：西式早餐
+1號：包子
+2號：油條
+3號：熱乾麵
+4號：玉米
+一共有4個人（A, B, C, D)
+每人有2份早餐，自選一份，再盲抽一份
+自選：A：3 ; B：2 ; C：4 ; D：1
+</t>
+  </si>
+  <si>
+    <t>There are five breakfast options, each with only two servings. The breakfast numbers are as follows:
+0: Western Breakfast
+1: Steamed Buns
+2: Fried Dough Sticks
+3: Hot Dry Noodles
+4: Corn
+There are four people in total (A, B, C, D).
+Each person gets two breakfasts. Choose one and then draw another.
+Choose: A: 3; B: 2; C: 4; D: 1</t>
+  </si>
+  <si>
+    <t>level3_2</t>
+  </si>
+  <si>
+    <t>请依照CDAB的顺序报出大家盲抽到的早餐号码。</t>
+  </si>
+  <si>
+    <t>請依照CDAB的順序報出大家盲抽到的早餐號碼。</t>
+  </si>
+  <si>
+    <t>Please report the breakfast numbers you drew blindly in the order of CDAB.</t>
+  </si>
+  <si>
+    <t>level3_3</t>
+  </si>
+  <si>
+    <t>已知：
+1.每个人不会抽到与自选相同早餐，最后食用的早餐也不会重复
+2.A 把其中一份早餐分享给 C 和 D
+3.C 看到 B 和 D 分别抽到与自己相同的早餐，且 B 和 D 之间没有相同的早餐
+4.B 抽他不喜欢吃的西餐，就跟 A 换了</t>
+  </si>
+  <si>
+    <t>已知：
+1.每個人不會抽到與自選相同早餐，最後食用的早餐也不會重複
+2.A 把其中一份早餐分享給 C 和 D
+3.C 看到 B 和 D 分別抽到與自己相同的早餐，且 B 和 D 之間沒有相同的早餐
+4.B 抽他不喜歡吃的西餐，就跟 A 換了</t>
+  </si>
+  <si>
+    <t>Given:
+1. No one draws the same breakfast as their own, and no one consumes the same breakfast.
+2. A shares one of his breakfasts with C and D.
+3. C sees that B and D each draw the same breakfast as him, and that B and D do not have the same breakfast.
+4. B draws a Western meal he dislikes, so he exchanges it with A.</t>
+  </si>
+  <si>
     <t>contact_us</t>
   </si>
   <si>
@@ -257,6 +333,45 @@
   </si>
   <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>贴纸</t>
+  </si>
+  <si>
+    <t>貼紙</t>
+  </si>
+  <si>
+    <t>Sticker</t>
+  </si>
+  <si>
+    <t>罐子</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>门把手</t>
+  </si>
+  <si>
+    <t>門把手</t>
+  </si>
+  <si>
+    <t>Doorknob</t>
+  </si>
+  <si>
+    <t>砖头</t>
+  </si>
+  <si>
+    <t>磚頭</t>
+  </si>
+  <si>
+    <t>Brick</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1446,189 +1561,301 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="56" spans="2:5">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="266" spans="2:5">
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="E15" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="2:5">
       <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" ht="168" spans="2:5">
       <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GameConfig/Datas/i18n.xlsx
+++ b/Configs/GameConfig/Datas/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>Brick</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>確定</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1858,6 +1867,20 @@
         <v>101</v>
       </c>
     </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/GameConfig/Datas/i18n.xlsx
+++ b/Configs/GameConfig/Datas/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="23610" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -338,16 +338,25 @@
     <t>手套</t>
   </si>
   <si>
-    <t>Gloves</t>
+    <t>周司机的手套</t>
+  </si>
+  <si>
+    <t>周司機的手套</t>
+  </si>
+  <si>
+    <t>Driver Zhou's Gloves</t>
   </si>
   <si>
     <t>贴纸</t>
   </si>
   <si>
-    <t>貼紙</t>
-  </si>
-  <si>
-    <t>Sticker</t>
+    <t>红色贴纸</t>
+  </si>
+  <si>
+    <t>紅色貼紙</t>
+  </si>
+  <si>
+    <t>Red Sticker</t>
   </si>
   <si>
     <t>罐子</t>
@@ -362,16 +371,19 @@
     <t>門把手</t>
   </si>
   <si>
-    <t>Doorknob</t>
+    <t>Door Handle</t>
   </si>
   <si>
     <t>砖头</t>
   </si>
   <si>
-    <t>磚頭</t>
-  </si>
-  <si>
-    <t>Brick</t>
+    <t>蒲词客的砖头</t>
+  </si>
+  <si>
+    <t>蒲詞客的磚頭</t>
+  </si>
+  <si>
+    <t>Poet A Pu's Brick</t>
   </si>
   <si>
     <t>OK</t>
@@ -1356,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1802,83 +1814,83 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
